--- a/aggregation calcs.xlsx
+++ b/aggregation calcs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabemantegna/Documents/GitHub/LDES_Data_Transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C139658A-E3FE-634D-95F2-A3BC35B5277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDE4998-9503-B342-8DCC-ECCB3B813570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="1460" windowWidth="28040" windowHeight="17440" xr2:uid="{F9DB78DF-0CA1-0846-9381-797DD01D1CFD}"/>
+    <workbookView xWindow="3200" yWindow="1400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F9DB78DF-0CA1-0846-9381-797DD01D1CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,9 +139,6 @@
     <t>TRE</t>
   </si>
   <si>
-    <t>TRE_W</t>
-  </si>
-  <si>
     <t>zones</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Aggregation</t>
+  </si>
+  <si>
+    <t>TREW</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E24128-8B73-A945-8BCD-37C6D83AECB5}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,34 +580,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -621,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2">
         <v>26</v>
@@ -654,16 +654,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>26</v>
@@ -689,13 +689,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>26</v>
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>26</v>
@@ -750,16 +750,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>26</v>
@@ -788,10 +788,10 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>26</v>
@@ -820,10 +820,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>26</v>
@@ -849,13 +849,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>26</v>
@@ -881,13 +881,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>26</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>26</v>
@@ -948,10 +948,10 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <v>26</v>
@@ -977,13 +977,13 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>26</v>
@@ -1009,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>26</v>
@@ -1041,13 +1041,13 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15">
         <v>26</v>
@@ -1067,19 +1067,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16">
         <v>26</v>
@@ -1099,19 +1099,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <v>26</v>
@@ -1131,19 +1131,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18">
         <v>26</v>
@@ -1163,19 +1163,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>26</v>
@@ -1195,19 +1195,19 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20">
         <v>26</v>
@@ -1233,13 +1233,13 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>26</v>
@@ -1262,16 +1262,16 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22">
         <v>26</v>
@@ -1294,16 +1294,16 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23">
         <v>26</v>
@@ -1326,16 +1326,16 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24">
         <v>26</v>
@@ -1358,16 +1358,16 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25">
         <v>26</v>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -1437,7 +1437,7 @@
         <v>26</v>
       </c>
       <c r="J27" t="str">
-        <v>TRE_W</v>
+        <v>TREW</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <f>COUNTA(_xlfn.UNIQUE(B2:B27))</f>
@@ -2212,21 +2212,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493258B6-502D-FE43-9029-1FEDAE6F76B5}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,7 +2509,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2674,7 +2674,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2685,7 +2685,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2784,7 +2784,7 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2883,7 +2883,7 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2894,7 +2894,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -2916,7 +2916,7 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -2938,7 +2938,7 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2949,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2982,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -3015,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -3026,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -3037,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -3048,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -3070,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -3081,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -3092,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -3103,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -3114,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -3125,7 +3125,7 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -3147,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -3158,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86">
         <v>18</v>
